--- a/Zeiteinteilung.xlsx
+++ b/Zeiteinteilung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bened\Dropbox\SWE_Projekt_Verkauf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWE\Git-Projekte\Varkauf1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
